--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/folder_paths.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/folder_paths.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,243 +648,250 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\core\util</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\remote\dto</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\data\repository</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\screens\home</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\presentation</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\java\com\gargi\android\ui\theme</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\presentation</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\drawable</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-anydpi-v26</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-hdpi</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-mdpi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xhdpi</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxhdpi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\mipmap-xxxhdpi</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\values</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\res\xml</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\components</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\navigation</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\components</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\navigation</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\evaluate</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\home</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\evaluate</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\settings</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\home</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\topics</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\settings</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\theme</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\screens\topics</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\test</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\main\ui\theme</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\test\java</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\test</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\test\java\com</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\test\java</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\test\java\com\krishna</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\test\java\com</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\test\java\com\krishna\gargi</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\test\java\com\krishna</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle</t>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\app\src\test\java\com\krishna\gargi</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
+        <is>
+          <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>D:\Android\Andriod_Data\AndroidStudioProjects\GargiAndroid\gradle\wrapper</t>
         </is>
